--- a/ShopperStackProject/src/test/resources/externalData/ShopperStackData.xlsx
+++ b/ShopperStackProject/src/test/resources/externalData/ShopperStackData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19770" windowHeight="6615" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19770" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>male</t>
   </si>
@@ -27,9 +27,6 @@
     <t>patil</t>
   </si>
   <si>
-    <t>rohanpatil7875@gmail.com</t>
-  </si>
-  <si>
     <t>Rohan@7875</t>
   </si>
   <si>
@@ -43,6 +40,18 @@
   </si>
   <si>
     <t>chetan</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Rohan@4545</t>
+  </si>
+  <si>
+    <t>rohan457545@gmail.com</t>
+  </si>
+  <si>
+    <t>rohan74156@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -87,10 +96,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -403,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,26 +427,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="3">
         <v>7875686845</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7875686895</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -445,8 +478,12 @@
     <hyperlink ref="E1" r:id="rId2"/>
     <hyperlink ref="F1" r:id="rId3"/>
     <hyperlink ref="G1" r:id="rId4"/>
+    <hyperlink ref="E2" r:id="rId5"/>
+    <hyperlink ref="F2" r:id="rId6"/>
+    <hyperlink ref="G2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -465,11 +502,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -485,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -496,19 +533,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
